--- a/TestDataXls/Student Book Camp.xlsx
+++ b/TestDataXls/Student Book Camp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C722CD2-9EB9-4731-827E-20191A6E1B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B79BA7-38B2-419A-88D7-4F3ACBC7E46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="79">
   <si>
     <t>password</t>
   </si>
@@ -255,6 +254,15 @@
   </si>
   <si>
     <t>view-camp/hinata-san/math-1</t>
+  </si>
+  <si>
+    <t>ycs-acadamy/clarinet-camp</t>
+  </si>
+  <si>
+    <t>Clarinet</t>
+  </si>
+  <si>
+    <t>ycs</t>
   </si>
 </sst>
 </file>
@@ -344,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -353,19 +361,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1027,11 +1030,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,15 +1046,13 @@
     <col min="5" max="6" width="18.44140625" customWidth="1"/>
     <col min="7" max="7" width="13.109375" customWidth="1"/>
     <col min="8" max="8" width="34.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="13" customWidth="1"/>
-    <col min="11" max="12" width="13.44140625" style="7" customWidth="1"/>
+    <col min="9" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="12" width="13.44140625" customWidth="1"/>
     <col min="13" max="13" width="12.109375" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" style="13" customWidth="1"/>
-    <col min="16" max="17" width="9.88671875" style="9" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" customWidth="1"/>
-    <col min="19" max="20" width="13.33203125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+    <col min="16" max="17" width="9.88671875" style="7" customWidth="1"/>
+    <col min="18" max="20" width="13.33203125" customWidth="1"/>
     <col min="21" max="21" width="21.88671875" customWidth="1"/>
     <col min="22" max="22" width="19.6640625" customWidth="1"/>
     <col min="23" max="23" width="25.44140625" style="1" customWidth="1"/>
@@ -1062,7 +1063,7 @@
     <col min="28" max="28" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1093,10 +1094,10 @@
       <c r="J1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="3" t="s">
         <v>54</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -1108,10 +1109,10 @@
       <c r="O1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="6" t="s">
         <v>24</v>
       </c>
       <c r="R1" s="3" t="s">
@@ -1145,26 +1146,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -1176,46 +1177,46 @@
       <c r="J2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="6">
         <v>25</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="6">
         <f>((I2+1)*(K2+O2))</f>
         <v>52</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="3">
         <v>0.01</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="3">
         <f>L2*M2</f>
         <v>0.52</v>
       </c>
-      <c r="O2" s="6">
-        <v>1</v>
-      </c>
-      <c r="P2" s="8">
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
+      <c r="P2" s="6">
         <f>L2+N2</f>
         <v>52.52</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="11">
         <v>1</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="7">
         <f t="shared" ref="S2:S5" si="0">L2*0.5</f>
         <v>26</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="7">
         <f t="shared" ref="T2:T7" si="1">M2*S2</f>
         <v>0.26</v>
       </c>
-      <c r="U2" s="17">
+      <c r="U2" s="12">
         <f t="shared" ref="U2:U7" si="2">L2-S2</f>
         <v>26</v>
       </c>
-      <c r="V2" s="9">
+      <c r="V2" s="7">
         <f t="shared" ref="V2:V7" si="3">U2+T2</f>
         <v>26.26</v>
       </c>
@@ -1234,28 +1235,27 @@
       <c r="AA2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="13"/>
-    </row>
-    <row r="3" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" t="s">
         <v>44</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -1267,46 +1267,46 @@
       <c r="J3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>25</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="6">
         <f t="shared" ref="L3:L4" si="4">((I3+1)*(K3+O3))</f>
         <v>52</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="3">
         <v>0.01</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="3">
         <f t="shared" ref="N3:N4" si="5">L3*M3</f>
         <v>0.52</v>
       </c>
-      <c r="O3" s="6">
-        <v>1</v>
-      </c>
-      <c r="P3" s="8">
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6">
         <f t="shared" ref="P3:P4" si="6">L3+N3</f>
         <v>52.52</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="11">
         <v>1</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="7">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="7">
         <f t="shared" si="1"/>
         <v>0.26</v>
       </c>
-      <c r="U3" s="17">
+      <c r="U3" s="12">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="7">
         <f t="shared" si="3"/>
         <v>26.26</v>
       </c>
@@ -1326,26 +1326,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" t="s">
         <v>44</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -1357,46 +1357,46 @@
       <c r="J4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <v>25</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="6">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="3">
         <v>0.01</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="3">
         <f t="shared" si="5"/>
         <v>0.52</v>
       </c>
-      <c r="O4" s="6">
-        <v>1</v>
-      </c>
-      <c r="P4" s="8">
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6">
         <f t="shared" si="6"/>
         <v>52.52</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="11">
         <v>1</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="7">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="7">
         <f t="shared" si="1"/>
         <v>0.26</v>
       </c>
-      <c r="U4" s="17">
+      <c r="U4" s="12">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="7">
         <f t="shared" si="3"/>
         <v>26.26</v>
       </c>
@@ -1416,26 +1416,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -1447,46 +1447,46 @@
       <c r="J5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>25</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="6">
         <f t="shared" ref="L5:L6" si="7">((I5+1)*(K5+O5))</f>
         <v>52</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="3">
         <v>0.01</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="3">
         <f t="shared" ref="N5:N6" si="8">L5*M5</f>
         <v>0.52</v>
       </c>
-      <c r="O5" s="6">
-        <v>1</v>
-      </c>
-      <c r="P5" s="8">
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="6">
         <f t="shared" ref="P5:P6" si="9">L5+N5</f>
         <v>52.52</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="11">
         <v>1</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="7">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="7">
         <f t="shared" si="1"/>
         <v>0.26</v>
       </c>
-      <c r="U5" s="17">
+      <c r="U5" s="12">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="7">
         <f t="shared" si="3"/>
         <v>26.26</v>
       </c>
@@ -1506,26 +1506,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" t="s">
         <v>44</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -1537,46 +1537,46 @@
       <c r="J6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>25</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="6">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="3">
         <v>0.01</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="3">
         <f t="shared" si="8"/>
         <v>0.52</v>
       </c>
-      <c r="O6" s="6">
-        <v>1</v>
-      </c>
-      <c r="P6" s="8">
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6">
         <f t="shared" si="9"/>
         <v>52.52</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="11">
         <v>1</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="7">
         <f>L6*0.5</f>
         <v>26</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="7">
         <f t="shared" si="1"/>
         <v>0.26</v>
       </c>
-      <c r="U6" s="17">
+      <c r="U6" s="12">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="7">
         <f t="shared" si="3"/>
         <v>26.26</v>
       </c>
@@ -1596,26 +1596,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" t="s">
         <v>44</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -1627,46 +1627,46 @@
       <c r="J7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>25</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="6">
         <f t="shared" ref="L7:L8" si="10">((I7+1)*(K7+O7))</f>
         <v>52</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="3">
         <v>0.01</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="3">
         <f t="shared" ref="N7:N8" si="11">L7*M7</f>
         <v>0.52</v>
       </c>
-      <c r="O7" s="6">
-        <v>1</v>
-      </c>
-      <c r="P7" s="8">
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="6">
         <f t="shared" ref="P7:P8" si="12">L7+N7</f>
         <v>52.52</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="11">
         <v>1</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="7">
         <f>L7*0.5</f>
         <v>26</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="7">
         <f t="shared" si="1"/>
         <v>0.26</v>
       </c>
-      <c r="U7" s="17">
+      <c r="U7" s="12">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V7" s="7">
         <f t="shared" si="3"/>
         <v>26.26</v>
       </c>
@@ -1686,26 +1686,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -1717,46 +1717,46 @@
       <c r="J8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>25</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="6">
         <f t="shared" si="10"/>
         <v>52</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="3">
         <v>0.01</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="3">
         <f t="shared" si="11"/>
         <v>0.52</v>
       </c>
-      <c r="O8" s="6">
-        <v>1</v>
-      </c>
-      <c r="P8" s="8">
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6">
         <f t="shared" si="12"/>
         <v>52.52</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="11">
         <v>1</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="7">
         <f>L8*0.5</f>
         <v>26</v>
       </c>
-      <c r="T8" s="16">
+      <c r="T8" s="7">
         <f t="shared" ref="T8:T9" si="13">M8*S8</f>
         <v>0.26</v>
       </c>
-      <c r="U8" s="17">
+      <c r="U8" s="12">
         <f t="shared" ref="U8:U9" si="14">L8-S8</f>
         <v>26</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="7">
         <f t="shared" ref="V8:V9" si="15">U8+T8</f>
         <v>26.26</v>
       </c>
@@ -1776,26 +1776,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" t="s">
         <v>44</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -1807,46 +1807,46 @@
       <c r="J9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <v>25</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="6">
         <f t="shared" ref="L9" si="16">((I9+1)*(K9+O9))</f>
         <v>52</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="3">
         <v>0.01</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="3">
         <f t="shared" ref="N9" si="17">L9*M9</f>
         <v>0.52</v>
       </c>
-      <c r="O9" s="6">
-        <v>1</v>
-      </c>
-      <c r="P9" s="8">
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6">
         <f t="shared" ref="P9" si="18">L9+N9</f>
         <v>52.52</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="11">
         <v>1</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S9" s="7">
         <f>L9*0.5</f>
         <v>26</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="7">
         <f t="shared" si="13"/>
         <v>0.26</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="12">
         <f t="shared" si="14"/>
         <v>26</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="7">
         <f t="shared" si="15"/>
         <v>26.26</v>
       </c>
@@ -1866,26 +1866,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -1897,46 +1897,46 @@
       <c r="J10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>25</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="6">
         <f t="shared" ref="L10:L12" si="19">((I10+1)*(K10+O10))</f>
         <v>52</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="3">
         <v>0.01</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="3">
         <f t="shared" ref="N10:N12" si="20">L10*M10</f>
         <v>0.52</v>
       </c>
-      <c r="O10" s="6">
-        <v>1</v>
-      </c>
-      <c r="P10" s="8">
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6">
         <f t="shared" ref="P10:P12" si="21">L10+N10</f>
         <v>52.52</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="11">
         <v>1</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10" s="7">
         <f t="shared" ref="S10:S12" si="22">L10*0.5</f>
         <v>26</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="7">
         <f t="shared" ref="T10:T12" si="23">M10*S10</f>
         <v>0.26</v>
       </c>
-      <c r="U10" s="17">
+      <c r="U10" s="12">
         <f t="shared" ref="U10:U12" si="24">L10-S10</f>
         <v>26</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="7">
         <f t="shared" ref="V10:V12" si="25">U10+T10</f>
         <v>26.26</v>
       </c>
@@ -1955,28 +1955,27 @@
       <c r="AA10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AB10" s="13"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" t="s">
         <v>44</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -1988,46 +1987,46 @@
       <c r="J11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <v>25</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="6">
         <f t="shared" si="19"/>
         <v>52</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="3">
         <v>0.01</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="3">
         <f t="shared" si="20"/>
         <v>0.52</v>
       </c>
-      <c r="O11" s="6">
-        <v>1</v>
-      </c>
-      <c r="P11" s="8">
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6">
         <f t="shared" si="21"/>
         <v>52.52</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="11">
         <v>1</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S11" s="16">
+      <c r="S11" s="7">
         <f t="shared" si="22"/>
         <v>26</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="7">
         <f t="shared" si="23"/>
         <v>0.26</v>
       </c>
-      <c r="U11" s="17">
+      <c r="U11" s="12">
         <f t="shared" si="24"/>
         <v>26</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V11" s="7">
         <f t="shared" si="25"/>
         <v>26.26</v>
       </c>
@@ -2046,28 +2045,27 @@
       <c r="AA11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AB11" s="13"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" t="s">
         <v>70</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -2079,46 +2077,46 @@
       <c r="J12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="6">
         <v>25</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="6">
         <f t="shared" si="19"/>
         <v>52</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="3">
         <v>0.01</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="3">
         <f t="shared" si="20"/>
         <v>0.52</v>
       </c>
-      <c r="O12" s="6">
-        <v>1</v>
-      </c>
-      <c r="P12" s="8">
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6">
         <f t="shared" si="21"/>
         <v>52.52</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="11">
         <v>1</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S12" s="16">
+      <c r="S12" s="7">
         <f t="shared" si="22"/>
         <v>26</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12" s="7">
         <f t="shared" si="23"/>
         <v>0.26</v>
       </c>
-      <c r="U12" s="17">
+      <c r="U12" s="12">
         <f t="shared" si="24"/>
         <v>26</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="7">
         <f t="shared" si="25"/>
         <v>26.26</v>
       </c>
@@ -2137,28 +2135,27 @@
       <c r="AA12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AB12" s="13"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="E13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" t="s">
         <v>70</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -2170,46 +2167,46 @@
       <c r="J13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="6">
         <v>20</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="6">
         <f t="shared" ref="L13:L19" si="26">((I13+1)*(K13+O13))</f>
         <v>50</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="3">
         <v>0.01</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="3">
         <f t="shared" ref="N13:N19" si="27">L13*M13</f>
         <v>0.5</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="3">
         <v>5</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="6">
         <f t="shared" ref="P13:P19" si="28">L13+N13</f>
         <v>50.5</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="11">
         <v>1</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S13" s="16">
+      <c r="S13" s="7">
         <f t="shared" ref="S13:S19" si="29">L13*0.5</f>
         <v>25</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13" s="7">
         <f t="shared" ref="T13:T19" si="30">M13*S13</f>
         <v>0.25</v>
       </c>
-      <c r="U13" s="17">
+      <c r="U13" s="12">
         <f t="shared" ref="U13:U19" si="31">L13-S13</f>
         <v>25</v>
       </c>
-      <c r="V13" s="9">
+      <c r="V13" s="7">
         <f t="shared" ref="V13:V19" si="32">U13+T13</f>
         <v>25.25</v>
       </c>
@@ -2229,26 +2226,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="13" t="s">
+      <c r="E14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" t="s">
         <v>70</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -2260,46 +2257,46 @@
       <c r="J14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="6">
         <v>20</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="6">
         <f t="shared" si="26"/>
         <v>50</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="3">
         <v>0.01</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="3">
         <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="3">
         <v>5</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="6">
         <f t="shared" si="28"/>
         <v>50.5</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="11">
         <v>1</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S14" s="16">
+      <c r="S14" s="7">
         <f t="shared" si="29"/>
         <v>25</v>
       </c>
-      <c r="T14" s="16">
+      <c r="T14" s="7">
         <f t="shared" si="30"/>
         <v>0.25</v>
       </c>
-      <c r="U14" s="17">
+      <c r="U14" s="12">
         <f t="shared" si="31"/>
         <v>25</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V14" s="7">
         <f t="shared" si="32"/>
         <v>25.25</v>
       </c>
@@ -2319,26 +2316,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="13" t="s">
+      <c r="E15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" t="s">
         <v>70</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -2350,46 +2347,46 @@
       <c r="J15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="6">
         <v>20</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="6">
         <f t="shared" si="26"/>
         <v>50</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="3">
         <v>0.01</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="3">
         <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="3">
         <v>5</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="6">
         <f t="shared" si="28"/>
         <v>50.5</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q15" s="11">
         <v>1</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S15" s="16">
+      <c r="S15" s="7">
         <f t="shared" si="29"/>
         <v>25</v>
       </c>
-      <c r="T15" s="16">
+      <c r="T15" s="7">
         <f t="shared" si="30"/>
         <v>0.25</v>
       </c>
-      <c r="U15" s="17">
+      <c r="U15" s="12">
         <f t="shared" si="31"/>
         <v>25</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V15" s="7">
         <f t="shared" si="32"/>
         <v>25.25</v>
       </c>
@@ -2409,26 +2406,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="E16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" t="s">
         <v>70</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -2440,46 +2437,46 @@
       <c r="J16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="6">
         <v>20</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="6">
         <f t="shared" si="26"/>
         <v>50</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="3">
         <v>0.01</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="3">
         <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="3">
         <v>5</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="6">
         <f t="shared" si="28"/>
         <v>50.5</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q16" s="11">
         <v>1</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S16" s="16">
+      <c r="S16" s="7">
         <f t="shared" si="29"/>
         <v>25</v>
       </c>
-      <c r="T16" s="16">
+      <c r="T16" s="7">
         <f t="shared" si="30"/>
         <v>0.25</v>
       </c>
-      <c r="U16" s="17">
+      <c r="U16" s="12">
         <f t="shared" si="31"/>
         <v>25</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16" s="7">
         <f t="shared" si="32"/>
         <v>25.25</v>
       </c>
@@ -2506,19 +2503,19 @@
       <c r="B17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" t="s">
         <v>70</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -2530,46 +2527,46 @@
       <c r="J17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="6">
         <v>20</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="6">
         <f t="shared" si="26"/>
         <v>50</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="3">
         <v>0.01</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="3">
         <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="3">
         <v>5</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="6">
         <f t="shared" si="28"/>
         <v>50.5</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="11">
         <v>1</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S17" s="16">
+      <c r="S17" s="7">
         <f t="shared" si="29"/>
         <v>25</v>
       </c>
-      <c r="T17" s="16">
+      <c r="T17" s="7">
         <f t="shared" si="30"/>
         <v>0.25</v>
       </c>
-      <c r="U17" s="17">
+      <c r="U17" s="12">
         <f t="shared" si="31"/>
         <v>25</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V17" s="7">
         <f t="shared" si="32"/>
         <v>25.25</v>
       </c>
@@ -2596,19 +2593,19 @@
       <c r="B18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" t="s">
         <v>72</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -2620,46 +2617,46 @@
       <c r="J18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="6">
         <v>16</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="6">
         <f t="shared" si="26"/>
         <v>21</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="3">
         <v>0.01</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="3">
         <f t="shared" si="27"/>
         <v>0.21</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="3">
         <v>5</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="6">
         <f t="shared" si="28"/>
         <v>21.21</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="11">
         <v>1</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S18" s="16">
+      <c r="S18" s="7">
         <f t="shared" si="29"/>
         <v>10.5</v>
       </c>
-      <c r="T18" s="16">
+      <c r="T18" s="7">
         <f t="shared" si="30"/>
         <v>0.105</v>
       </c>
-      <c r="U18" s="17">
+      <c r="U18" s="12">
         <f t="shared" si="31"/>
         <v>10.5</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V18" s="7">
         <f t="shared" si="32"/>
         <v>10.605</v>
       </c>
@@ -2686,46 +2683,46 @@
       <c r="J19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <v>25</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="6">
         <f t="shared" si="26"/>
         <v>52</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="3">
         <v>0.01</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="3">
         <f t="shared" si="27"/>
         <v>0.52</v>
       </c>
-      <c r="O19" s="6">
-        <v>1</v>
-      </c>
-      <c r="P19" s="8">
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6">
         <f t="shared" si="28"/>
         <v>52.52</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="Q19" s="11">
         <v>1</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S19" s="16">
+      <c r="S19" s="7">
         <f t="shared" si="29"/>
         <v>26</v>
       </c>
-      <c r="T19" s="16">
+      <c r="T19" s="7">
         <f t="shared" si="30"/>
         <v>0.26</v>
       </c>
-      <c r="U19" s="17">
+      <c r="U19" s="12">
         <f t="shared" si="31"/>
         <v>26</v>
       </c>
-      <c r="V19" s="9">
+      <c r="V19" s="7">
         <f t="shared" si="32"/>
         <v>26.26</v>
       </c>
@@ -2745,26 +2742,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="E21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" t="s">
         <v>72</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -2776,46 +2773,46 @@
       <c r="J21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <v>16</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="6">
         <f t="shared" ref="L21" si="33">((I21+1)*(K21+O21))</f>
         <v>21</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="3">
         <v>0.01</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="3">
         <f t="shared" ref="N21" si="34">L21*M21</f>
         <v>0.21</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="3">
         <v>5</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="6">
         <f t="shared" ref="P21" si="35">L21+N21</f>
         <v>21.21</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q21" s="11">
         <v>1</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S21" s="16">
+      <c r="S21" s="7">
         <f t="shared" ref="S21" si="36">L21*0.5</f>
         <v>10.5</v>
       </c>
-      <c r="T21" s="16">
+      <c r="T21" s="7">
         <f t="shared" ref="T21" si="37">M21*S21</f>
         <v>0.105</v>
       </c>
-      <c r="U21" s="17">
+      <c r="U21" s="12">
         <f t="shared" ref="U21" si="38">L21-S21</f>
         <v>10.5</v>
       </c>
-      <c r="V21" s="9">
+      <c r="V21" s="7">
         <f t="shared" ref="V21" si="39">U21+T21</f>
         <v>10.605</v>
       </c>
@@ -2832,6 +2829,96 @@
         <v>60</v>
       </c>
       <c r="AA21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="6">
+        <v>5</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" ref="L24" si="40">((I24+1)*(K24+O24))</f>
+        <v>10</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" ref="N24" si="41">L24*M24</f>
+        <v>0.1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>5</v>
+      </c>
+      <c r="P24" s="6">
+        <f t="shared" ref="P24" si="42">L24+N24</f>
+        <v>10.1</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>1</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S24" s="7">
+        <f t="shared" ref="S24" si="43">L24*0.5</f>
+        <v>5</v>
+      </c>
+      <c r="T24" s="7">
+        <f t="shared" ref="T24" si="44">M24*S24</f>
+        <v>0.05</v>
+      </c>
+      <c r="U24" s="12">
+        <f t="shared" ref="U24" si="45">L24-S24</f>
+        <v>5</v>
+      </c>
+      <c r="V24" s="7">
+        <f t="shared" ref="V24" si="46">U24+T24</f>
+        <v>5.05</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>60</v>
+      </c>
+      <c r="AA24" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2860,62 +2947,62 @@
       </c>
     </row>
     <row r="2" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="10" t="s">
         <v>41</v>
       </c>
     </row>

--- a/TestDataXls/Student Book Camp.xlsx
+++ b/TestDataXls/Student Book Camp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B79BA7-38B2-419A-88D7-4F3ACBC7E46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AB49A1-43A4-4050-B678-1946C4AE2573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,13 +256,13 @@
     <t>view-camp/hinata-san/math-1</t>
   </si>
   <si>
-    <t>ycs-acadamy/clarinet-camp</t>
-  </si>
-  <si>
     <t>Clarinet</t>
   </si>
   <si>
     <t>ycs</t>
+  </si>
+  <si>
+    <t>ycs-acadamy/camp-chess-6</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1034,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2849,16 +2849,16 @@
         <v>26</v>
       </c>
       <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
         <v>77</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="I24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>73</v>
@@ -2868,21 +2868,21 @@
       </c>
       <c r="L24" s="6">
         <f t="shared" ref="L24" si="40">((I24+1)*(K24+O24))</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M24" s="3">
         <v>0.01</v>
       </c>
       <c r="N24" s="3">
         <f t="shared" ref="N24" si="41">L24*M24</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O24" s="3">
         <v>5</v>
       </c>
       <c r="P24" s="6">
         <f t="shared" ref="P24" si="42">L24+N24</f>
-        <v>10.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q24" s="11">
         <v>1</v>
@@ -2892,19 +2892,19 @@
       </c>
       <c r="S24" s="7">
         <f t="shared" ref="S24" si="43">L24*0.5</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T24" s="7">
         <f t="shared" ref="T24" si="44">M24*S24</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U24" s="12">
         <f t="shared" ref="U24" si="45">L24-S24</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V24" s="7">
         <f t="shared" ref="V24" si="46">U24+T24</f>
-        <v>5.05</v>
+        <v>10.1</v>
       </c>
       <c r="W24" s="4" t="s">
         <v>18</v>

--- a/TestDataXls/Student Book Camp.xlsx
+++ b/TestDataXls/Student Book Camp.xlsx
@@ -1,27 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AB49A1-43A4-4050-B678-1946C4AE2573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94A898C-BEE6-4472-9112-28182A7F14CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
-    <sheet name="camp_booking" sheetId="1" r:id="rId2"/>
-    <sheet name="stu" sheetId="3" r:id="rId3"/>
+    <sheet name="camp_booking" sheetId="1" r:id="rId1"/>
+    <sheet name="stu" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -256,13 +246,13 @@
     <t>view-camp/hinata-san/math-1</t>
   </si>
   <si>
-    <t>Clarinet</t>
-  </si>
-  <si>
-    <t>ycs</t>
-  </si>
-  <si>
-    <t>ycs-acadamy/camp-chess-6</t>
+    <t>cello</t>
+  </si>
+  <si>
+    <t>se21</t>
+  </si>
+  <si>
+    <t>kyle-pew/cello-camp-9</t>
   </si>
 </sst>
 </file>
@@ -386,327 +376,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-IN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>camp_booking!$AA$1:$AA$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>expectedError</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Login Success &gt; Class booked</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>class_booking!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>class_booking!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>#REF!</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F1F7-48B7-AD55-62773C69434F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="51860608"/>
-        <c:axId val="51862144"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="51860608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-IN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="51862144"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="51862144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-IN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="51860608"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8652387" cy="6276258"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1034,7 +703,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2858,31 +2527,31 @@
         <v>78</v>
       </c>
       <c r="I24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>73</v>
       </c>
       <c r="K24" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" ref="L24" si="40">((I24+1)*(K24+O24))</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M24" s="3">
         <v>0.01</v>
       </c>
       <c r="N24" s="3">
         <f t="shared" ref="N24" si="41">L24*M24</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="O24" s="3">
         <v>5</v>
       </c>
       <c r="P24" s="6">
         <f t="shared" ref="P24" si="42">L24+N24</f>
-        <v>20.2</v>
+        <v>25.25</v>
       </c>
       <c r="Q24" s="11">
         <v>1</v>
@@ -2892,19 +2561,19 @@
       </c>
       <c r="S24" s="7">
         <f t="shared" ref="S24" si="43">L24*0.5</f>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="T24" s="7">
         <f t="shared" ref="T24" si="44">M24*S24</f>
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="U24" s="12">
         <f t="shared" ref="U24" si="45">L24-S24</f>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="V24" s="7">
         <f t="shared" ref="V24" si="46">U24+T24</f>
-        <v>10.1</v>
+        <v>12.625</v>
       </c>
       <c r="W24" s="4" t="s">
         <v>18</v>
